--- a/Localization_tests.xlsx
+++ b/Localization_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\V2Victory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5102854A-282D-4AC3-A770-A4548D653BDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527F3A3-C4DB-44A4-B0D4-653970B2A376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="870" windowWidth="20325" windowHeight="14205" xr2:uid="{CEC3602D-B6D2-4D70-8E1E-E60229B77324}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="22">
   <si>
     <t>Duty</t>
   </si>
@@ -91,6 +91,15 @@
   </si>
   <si>
     <t>err</t>
+  </si>
+  <si>
+    <t>Corrected</t>
+  </si>
+  <si>
+    <t>3.0731x + 12.7</t>
+  </si>
+  <si>
+    <t>2.6813x + 17.31</t>
   </si>
 </sst>
 </file>
@@ -801,7 +810,392 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$16</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Corrected</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$K$17:$K$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>100</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$17:$L$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>19.824999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>23.649074074074072</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>26.664814814814815</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.037962962962961</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31.021296296296295</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>33.696296296296296</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0280-4FE4-A502-3BC2EFF62C70}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="567537720"/>
+        <c:axId val="567540600"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="567537720"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567540600"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="567540600"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="567537720"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1357,6 +1751,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1390,6 +2300,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CA0A0FC-E9B0-4A81-98ED-15071A757493}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1695,10 +2641,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53146F4B-D5A7-492F-954F-ED1C992BAB11}">
-  <dimension ref="B2:W11"/>
+  <dimension ref="B2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1708,7 +2654,7 @@
     <col min="17" max="17" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
         <v>12</v>
       </c>
@@ -1716,7 +2662,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="2:23" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>11</v>
       </c>
@@ -1760,7 +2706,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="4" t="s">
         <v>0</v>
       </c>
@@ -1824,8 +2770,11 @@
       <c r="W4" t="s">
         <v>18</v>
       </c>
+      <c r="Y4" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="5" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="7">
         <v>40</v>
       </c>
@@ -1889,7 +2838,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="9">
         <v>50</v>
       </c>
@@ -1960,8 +2909,12 @@
         <f>V6-R6</f>
         <v>1.1499999999999986</v>
       </c>
+      <c r="Y6">
+        <f>(V6+R6)/2</f>
+        <v>19.824999999999999</v>
+      </c>
     </row>
-    <row r="7" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="9">
         <v>60</v>
       </c>
@@ -2032,8 +2985,12 @@
         <f>V7-R7</f>
         <v>1.5018518518518498</v>
       </c>
+      <c r="Y7">
+        <f>(V7+R7)/2</f>
+        <v>23.649074074074072</v>
+      </c>
     </row>
-    <row r="8" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B8" s="9">
         <v>70</v>
       </c>
@@ -2104,8 +3061,12 @@
         <f>V8-R8</f>
         <v>1.0703703703703695</v>
       </c>
+      <c r="Y8">
+        <f>(V8+R8)/2</f>
+        <v>26.664814814814815</v>
+      </c>
     </row>
-    <row r="9" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="9">
         <v>80</v>
       </c>
@@ -2176,8 +3137,12 @@
         <f>V9-R9</f>
         <v>0.72407407407407476</v>
       </c>
+      <c r="Y9">
+        <f>(V9+R9)/2</f>
+        <v>29.037962962962961</v>
+      </c>
     </row>
-    <row r="10" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B10" s="9">
         <v>90</v>
       </c>
@@ -2248,8 +3213,12 @@
         <f>V10-R10</f>
         <v>0.35740740740740762</v>
       </c>
+      <c r="Y10">
+        <f>(V10+R10)/2</f>
+        <v>31.021296296296295</v>
+      </c>
     </row>
-    <row r="11" spans="2:23" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>100</v>
       </c>
@@ -2319,6 +3288,74 @@
       <c r="W11">
         <f>V11-R11</f>
         <v>1.207407407407409</v>
+      </c>
+      <c r="Y11">
+        <f>(V11+R11)/2</f>
+        <v>33.696296296296296</v>
+      </c>
+    </row>
+    <row r="16" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K16" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="L16" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K17" s="9">
+        <v>50</v>
+      </c>
+      <c r="L17">
+        <v>19.824999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K18" s="9">
+        <v>60</v>
+      </c>
+      <c r="L18">
+        <v>23.649074074074072</v>
+      </c>
+    </row>
+    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K19" s="9">
+        <v>70</v>
+      </c>
+      <c r="L19">
+        <v>26.664814814814815</v>
+      </c>
+    </row>
+    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K20" s="9">
+        <v>80</v>
+      </c>
+      <c r="L20">
+        <v>29.037962962962961</v>
+      </c>
+    </row>
+    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="K21" s="9">
+        <v>90</v>
+      </c>
+      <c r="L21">
+        <v>31.021296296296295</v>
+      </c>
+    </row>
+    <row r="22" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K22" s="11">
+        <v>100</v>
+      </c>
+      <c r="L22">
+        <v>33.696296296296296</v>
+      </c>
+    </row>
+    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+      <c r="D30" t="s">
+        <v>20</v>
+      </c>
+      <c r="K30" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/Localization_tests.xlsx
+++ b/Localization_tests.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\code\V2Victory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4527F3A3-C4DB-44A4-B0D4-653970B2A376}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{408AAD55-DA0E-48E6-9E11-E1BB1FA36681}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="45" yWindow="870" windowWidth="20325" windowHeight="14205" xr2:uid="{CEC3602D-B6D2-4D70-8E1E-E60229B77324}"/>
   </bookViews>
@@ -137,7 +137,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -149,21 +149,6 @@
       <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -270,17 +255,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -403,39 +377,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -900,6 +872,12 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.26860870516185475"/>
+                  <c:y val="2.8700058326042578E-3"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2307,16 +2285,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>185737</xdr:rowOff>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
       <xdr:row>28</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:rowOff>42862</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2643,8 +2621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53146F4B-D5A7-492F-954F-ED1C992BAB11}">
   <dimension ref="B2:Y30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2673,37 +2651,40 @@
         <v>8</v>
       </c>
       <c r="E3" s="3"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="16" t="s">
+      <c r="F3" s="23"/>
+      <c r="G3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="25" t="s">
+      <c r="H3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="J3" s="3"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="16" t="s">
+      <c r="K3" s="23"/>
+      <c r="L3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="M3" s="25" t="s">
+      <c r="M3" s="24" t="s">
         <v>9</v>
       </c>
       <c r="N3" s="3" t="s">
         <v>8</v>
       </c>
       <c r="O3" s="3"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="16" t="s">
+      <c r="P3" s="23"/>
+      <c r="Q3" s="15" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="19" t="s">
+      <c r="R3" s="18" t="s">
         <v>10</v>
       </c>
       <c r="T3" t="s">
         <v>14</v>
+      </c>
+      <c r="V3">
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="2:25" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -2719,13 +2700,13 @@
       <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="G4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="26" t="s">
+      <c r="H4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="I4" s="5" t="s">
@@ -2734,13 +2715,13 @@
       <c r="J4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="L4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="26" t="s">
+      <c r="M4" s="25" t="s">
         <v>1</v>
       </c>
       <c r="N4" s="5" t="s">
@@ -2749,13 +2730,13 @@
       <c r="O4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="P4" s="15" t="s">
+      <c r="P4" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="Q4" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="R4" s="19" t="s">
         <v>6</v>
       </c>
       <c r="T4" t="s">
@@ -2779,7 +2760,7 @@
         <v>40</v>
       </c>
       <c r="C5" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D5" s="8">
         <v>14</v>
@@ -2790,12 +2771,12 @@
       <c r="F5" s="8">
         <v>12.5</v>
       </c>
-      <c r="G5" s="18">
-        <f>(SUM(D5:F5)/3)/(C5/1000)</f>
+      <c r="G5" s="17">
+        <f t="shared" ref="G5:G11" si="0">(SUM(D5:F5)/3)/(C5)</f>
         <v>13.333333333333334</v>
       </c>
       <c r="H5" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="I5" s="8">
         <v>22.5</v>
@@ -2806,12 +2787,12 @@
       <c r="K5" s="8">
         <v>20.5</v>
       </c>
-      <c r="L5" s="18">
-        <f t="shared" ref="L5:L11" si="0">(SUM(I5:K5)/3)/(H5/1000)</f>
+      <c r="L5" s="17">
+        <f>(SUM(I5:K5)/3)/(H5)</f>
         <v>14.111111111111112</v>
       </c>
       <c r="M5" s="8">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="N5" s="8">
         <v>29.5</v>
@@ -2822,11 +2803,11 @@
       <c r="P5" s="8">
         <v>29.5</v>
       </c>
-      <c r="Q5" s="18">
-        <f t="shared" ref="Q5:Q11" si="1">(SUM(N5:P5)/3)/(M5/1000)</f>
+      <c r="Q5" s="17">
+        <f t="shared" ref="Q5:Q11" si="1">(SUM(N5:P5)/3)/(M5)</f>
         <v>14.75</v>
       </c>
-      <c r="R5" s="21">
+      <c r="R5" s="20">
         <f>SUM(Q5,L5,G5)/3</f>
         <v>14.064814814814817</v>
       </c>
@@ -2843,23 +2824,23 @@
         <v>50</v>
       </c>
       <c r="C6" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D6" s="10">
         <v>18</v>
       </c>
-      <c r="E6" s="14">
+      <c r="E6" s="13">
         <v>19</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>18.5</v>
       </c>
-      <c r="G6" s="18">
-        <f>(SUM(D6:F6)/3)/(C6/1000)</f>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
         <v>18.5</v>
       </c>
       <c r="H6" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="I6" s="10">
         <v>29.5</v>
@@ -2867,15 +2848,15 @@
       <c r="J6" s="10">
         <v>29</v>
       </c>
-      <c r="K6" s="14">
+      <c r="K6" s="13">
         <v>28.5</v>
       </c>
-      <c r="L6" s="18">
-        <f t="shared" si="0"/>
+      <c r="L6" s="17">
+        <f>(SUM(I6:K6)/3)/(H6)</f>
         <v>19.333333333333332</v>
       </c>
-      <c r="M6" s="10">
-        <v>2000</v>
+      <c r="M6" s="8">
+        <v>2</v>
       </c>
       <c r="N6" s="10">
         <v>41</v>
@@ -2883,14 +2864,14 @@
       <c r="O6" s="10">
         <v>39</v>
       </c>
-      <c r="P6" s="14">
+      <c r="P6" s="13">
         <v>39.5</v>
       </c>
-      <c r="Q6" s="18">
+      <c r="Q6" s="17">
         <f t="shared" si="1"/>
         <v>19.916666666666668</v>
       </c>
-      <c r="R6" s="22">
+      <c r="R6" s="21">
         <f t="shared" ref="R6:R11" si="2">SUM(Q6,L6,G6)/3</f>
         <v>19.25</v>
       </c>
@@ -2902,7 +2883,7 @@
         <v>204</v>
       </c>
       <c r="V6">
-        <f>U6/10</f>
+        <f>U6/V3</f>
         <v>20.399999999999999</v>
       </c>
       <c r="W6">
@@ -2919,54 +2900,54 @@
         <v>60</v>
       </c>
       <c r="C7" s="8">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="D7" s="10">
         <v>23</v>
       </c>
-      <c r="E7" s="14">
+      <c r="E7" s="13">
         <v>21</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>21.5</v>
       </c>
-      <c r="G7" s="18">
-        <f t="shared" ref="G7:G11" si="4">(SUM(D7:F7)/3)/(C7/1000)</f>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
         <v>21.833333333333332</v>
       </c>
       <c r="H7" s="8">
-        <v>1500</v>
+        <v>1.5</v>
       </c>
       <c r="I7" s="10">
         <v>36</v>
       </c>
-      <c r="J7" s="14">
+      <c r="J7" s="13">
         <v>34</v>
       </c>
-      <c r="K7" s="14">
+      <c r="K7" s="13">
         <v>35.5</v>
       </c>
-      <c r="L7" s="18">
-        <f t="shared" si="0"/>
+      <c r="L7" s="17">
+        <f t="shared" ref="L6:L11" si="4">(SUM(I7:K7)/3)/(H7)</f>
         <v>23.444444444444443</v>
       </c>
-      <c r="M7" s="10">
-        <v>2000</v>
+      <c r="M7" s="8">
+        <v>2</v>
       </c>
       <c r="N7" s="10">
         <v>48</v>
       </c>
-      <c r="O7" s="14">
+      <c r="O7" s="13">
         <v>46</v>
       </c>
-      <c r="P7" s="14">
+      <c r="P7" s="13">
         <v>46.5</v>
       </c>
-      <c r="Q7" s="18">
+      <c r="Q7" s="17">
         <f t="shared" si="1"/>
         <v>23.416666666666668</v>
       </c>
-      <c r="R7" s="22">
+      <c r="R7" s="21">
         <f t="shared" si="2"/>
         <v>22.898148148148149</v>
       </c>
@@ -2995,54 +2976,54 @@
         <v>70</v>
       </c>
       <c r="C8" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D8" s="14">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
         <v>26.5</v>
       </c>
-      <c r="E8" s="14">
+      <c r="E8" s="13">
         <v>25.5</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>25.5</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>25.833333333333332</v>
+      </c>
+      <c r="H8" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>40.5</v>
+      </c>
+      <c r="J8" s="13">
+        <v>39</v>
+      </c>
+      <c r="K8" s="13">
+        <v>38.5</v>
+      </c>
+      <c r="L8" s="17">
         <f t="shared" si="4"/>
-        <v>25.833333333333332</v>
-      </c>
-      <c r="H8" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I8" s="14">
-        <v>40.5</v>
-      </c>
-      <c r="J8" s="14">
-        <v>39</v>
-      </c>
-      <c r="K8" s="14">
-        <v>38.5</v>
-      </c>
-      <c r="L8" s="18">
-        <f t="shared" si="0"/>
         <v>26.222222222222225</v>
       </c>
-      <c r="M8" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N8" s="14">
+      <c r="M8" s="8">
+        <v>2</v>
+      </c>
+      <c r="N8" s="13">
         <v>53</v>
       </c>
-      <c r="O8" s="14">
+      <c r="O8" s="13">
         <v>52</v>
       </c>
-      <c r="P8" s="14">
+      <c r="P8" s="13">
         <v>53</v>
       </c>
-      <c r="Q8" s="18">
+      <c r="Q8" s="17">
         <f t="shared" si="1"/>
         <v>26.333333333333332</v>
       </c>
-      <c r="R8" s="22">
+      <c r="R8" s="21">
         <f t="shared" si="2"/>
         <v>26.12962962962963</v>
       </c>
@@ -3071,54 +3052,54 @@
         <v>80</v>
       </c>
       <c r="C9" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D9" s="14">
+        <v>1</v>
+      </c>
+      <c r="D9" s="13">
         <v>29</v>
       </c>
-      <c r="E9" s="14">
+      <c r="E9" s="13">
         <v>28.5</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>28</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>28.5</v>
+      </c>
+      <c r="H9" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="13">
+        <v>43</v>
+      </c>
+      <c r="J9" s="13">
+        <v>43</v>
+      </c>
+      <c r="K9" s="13">
+        <v>43.5</v>
+      </c>
+      <c r="L9" s="17">
         <f t="shared" si="4"/>
-        <v>28.5</v>
-      </c>
-      <c r="H9" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I9" s="14">
-        <v>43</v>
-      </c>
-      <c r="J9" s="14">
-        <v>43</v>
-      </c>
-      <c r="K9" s="14">
-        <v>43.5</v>
-      </c>
-      <c r="L9" s="18">
-        <f t="shared" si="0"/>
         <v>28.777777777777775</v>
       </c>
-      <c r="M9" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N9" s="14">
+      <c r="M9" s="8">
+        <v>2</v>
+      </c>
+      <c r="N9" s="13">
         <v>57</v>
       </c>
-      <c r="O9" s="14">
+      <c r="O9" s="13">
         <v>57.5</v>
       </c>
-      <c r="P9" s="14">
+      <c r="P9" s="13">
         <v>58</v>
       </c>
-      <c r="Q9" s="18">
+      <c r="Q9" s="17">
         <f t="shared" si="1"/>
         <v>28.75</v>
       </c>
-      <c r="R9" s="22">
+      <c r="R9" s="21">
         <f t="shared" si="2"/>
         <v>28.675925925925924</v>
       </c>
@@ -3147,54 +3128,54 @@
         <v>90</v>
       </c>
       <c r="C10" s="8">
-        <v>1000</v>
-      </c>
-      <c r="D10" s="14">
+        <v>1</v>
+      </c>
+      <c r="D10" s="13">
         <v>31</v>
       </c>
-      <c r="E10" s="14">
+      <c r="E10" s="13">
         <v>30.5</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>31</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>30.833333333333332</v>
+      </c>
+      <c r="H10" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="I10" s="13">
+        <v>46</v>
+      </c>
+      <c r="J10" s="13">
+        <v>46.5</v>
+      </c>
+      <c r="K10" s="13">
+        <v>46</v>
+      </c>
+      <c r="L10" s="17">
         <f t="shared" si="4"/>
-        <v>30.833333333333332</v>
-      </c>
-      <c r="H10" s="8">
-        <v>1500</v>
-      </c>
-      <c r="I10" s="14">
-        <v>46</v>
-      </c>
-      <c r="J10" s="14">
-        <v>46.5</v>
-      </c>
-      <c r="K10" s="14">
-        <v>46</v>
-      </c>
-      <c r="L10" s="18">
-        <f t="shared" si="0"/>
         <v>30.777777777777775</v>
       </c>
-      <c r="M10" s="10">
-        <v>2000</v>
-      </c>
-      <c r="N10" s="14">
+      <c r="M10" s="8">
+        <v>2</v>
+      </c>
+      <c r="N10" s="13">
         <v>61.5</v>
       </c>
-      <c r="O10" s="14">
+      <c r="O10" s="13">
         <v>61.5</v>
       </c>
-      <c r="P10" s="14">
+      <c r="P10" s="13">
         <v>62.5</v>
       </c>
-      <c r="Q10" s="18">
+      <c r="Q10" s="17">
         <f t="shared" si="1"/>
         <v>30.916666666666668</v>
       </c>
-      <c r="R10" s="22">
+      <c r="R10" s="21">
         <f t="shared" si="2"/>
         <v>30.842592592592592</v>
       </c>
@@ -3222,8 +3203,8 @@
       <c r="B11" s="11">
         <v>100</v>
       </c>
-      <c r="C11" s="13">
-        <v>1000</v>
+      <c r="C11" s="8">
+        <v>1</v>
       </c>
       <c r="D11" s="12">
         <v>33</v>
@@ -3234,12 +3215,12 @@
       <c r="F11" s="12">
         <v>33</v>
       </c>
-      <c r="G11" s="27">
-        <f t="shared" si="4"/>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
         <v>33.166666666666664</v>
       </c>
-      <c r="H11" s="13">
-        <v>1500</v>
+      <c r="H11" s="8">
+        <v>1.5</v>
       </c>
       <c r="I11" s="12">
         <v>50</v>
@@ -3250,12 +3231,12 @@
       <c r="K11" s="12">
         <v>49.5</v>
       </c>
-      <c r="L11" s="27">
-        <f t="shared" si="0"/>
+      <c r="L11" s="17">
+        <f t="shared" si="4"/>
         <v>33.111111111111107</v>
       </c>
-      <c r="M11" s="12">
-        <v>2000</v>
+      <c r="M11" s="8">
+        <v>2</v>
       </c>
       <c r="N11" s="12">
         <v>66</v>
@@ -3266,11 +3247,11 @@
       <c r="P11" s="12">
         <v>66.5</v>
       </c>
-      <c r="Q11" s="27">
+      <c r="Q11" s="17">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="R11" s="23">
+      <c r="R11" s="22">
         <f t="shared" si="2"/>
         <v>33.092592592592588</v>
       </c>
@@ -3302,61 +3283,68 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K17" s="9">
         <v>50</v>
       </c>
       <c r="L17">
+        <f>Y6</f>
         <v>19.824999999999999</v>
       </c>
     </row>
-    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K18" s="9">
         <v>60</v>
       </c>
       <c r="L18">
+        <f t="shared" ref="L18:L22" si="6">Y7</f>
         <v>23.649074074074072</v>
       </c>
     </row>
-    <row r="19" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K19" s="9">
         <v>70</v>
       </c>
       <c r="L19">
+        <f t="shared" si="6"/>
         <v>26.664814814814815</v>
       </c>
     </row>
-    <row r="20" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K20" s="9">
         <v>80</v>
       </c>
       <c r="L20">
+        <f t="shared" si="6"/>
         <v>29.037962962962961</v>
       </c>
     </row>
-    <row r="21" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="4:13" x14ac:dyDescent="0.25">
       <c r="K21" s="9">
         <v>90</v>
       </c>
       <c r="L21">
+        <f t="shared" si="6"/>
         <v>31.021296296296295</v>
       </c>
     </row>
-    <row r="22" spans="4:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="4:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K22" s="11">
         <v>100</v>
       </c>
       <c r="L22">
+        <f t="shared" si="6"/>
         <v>33.696296296296296</v>
       </c>
     </row>
-    <row r="30" spans="4:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="4:13" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>20</v>
       </c>
       <c r="K30" t="s">
         <v>21</v>
       </c>
+      <c r="M30" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="3">
